--- a/data/trans_camb/P25A_7_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_7_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,47</t>
+          <t>-7,75; 4,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,5</t>
+          <t>-7,43; 4,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 3,28</t>
+          <t>-4,16; 9,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 3,92</t>
+          <t>-11,27; 3,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,34</t>
+          <t>-9,94; 4,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,93</t>
+          <t>-4,06; 12,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 2,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 3,22</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 9,25</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-15,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-16,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>-11,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-16,84%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,77%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 66,54</t>
+          <t>-59,78; 69,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 52,01</t>
+          <t>-58,72; 73,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 19,8</t>
+          <t>-32,97; 150,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 22,42</t>
+          <t>-47,61; 23,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 18,39</t>
+          <t>-42,01; 29,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 15,0</t>
+          <t>-17,0; 83,3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-43,91; 21,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-40,37; 25,63</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,65; 73,44</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>8,97</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 6,65</t>
+          <t>-7,96; 8,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,45</t>
+          <t>-8,51; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 11,15</t>
+          <t>-3,43; 13,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 16,84</t>
+          <t>-5,89; 11,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,37</t>
+          <t>-0,14; 18,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,08</t>
+          <t>-1,96; 23,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 6,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 10,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 14,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>-7,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>57,84%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48,65%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,05; 133,73</t>
+          <t>-52,67; 125,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 88,31</t>
+          <t>-54,6; 89,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 81,5</t>
+          <t>-25,5; 189,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 125,33</t>
+          <t>-30,46; 103,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 60,69</t>
+          <t>-1,72; 173,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 88,75</t>
+          <t>-10,48; 228,7</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,34; 62,17</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 95,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 134,23</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>18,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>12,95</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,81</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 5,88</t>
+          <t>-25,8; 12,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 43,54</t>
+          <t>-10,64; 62,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 10,98</t>
+          <t>-13,86; 64,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 17,7</t>
+          <t>-8,87; 18,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 5,61</t>
+          <t>-9,23; 20,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 24,1</t>
+          <t>-1,65; 29,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; 11,16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 37,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 42,22</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-26,14%</t>
+          <t>-36,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>189,26%</t>
+          <t>129,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>115,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,26%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>134,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>99,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>125,52%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,28; 250,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 1401,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 105,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 159,76</t>
+          <t>-70,39; 589,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 71,27</t>
+          <t>-65,75; 596,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 270,05</t>
+          <t>-21,49; 950,67</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-69,67; 205,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-36,15; 645,54</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,0; 728,0</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,31</t>
+          <t>-6,12; 3,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,89</t>
+          <t>-4,82; 8,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,07</t>
+          <t>-1,19; 14,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 7,12</t>
+          <t>-5,81; 5,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,84</t>
+          <t>-2,88; 8,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,6</t>
+          <t>0,23; 13,84</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 2,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 6,62</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 11,6</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>41,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-5,08%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 48,39</t>
+          <t>-46,95; 47,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 86,23</t>
+          <t>-39,4; 92,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 24,52</t>
+          <t>-11,8; 153,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 42,52</t>
+          <t>-28,64; 36,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 22,65</t>
+          <t>-13,7; 61,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 36,14</t>
+          <t>1,05; 94,29</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 22,09</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 51,25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 92,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
